--- a/class2.xlsx
+++ b/class2.xlsx
@@ -294,6 +294,24 @@
     <t xml:space="preserve">Tesco' </t>
   </si>
   <si>
+    <t xml:space="preserve">Selfridges' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pets at Home' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZON' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pets Corner' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jollyes' </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sports Direct' </t>
   </si>
   <si>
@@ -330,28 +348,10 @@
     <t xml:space="preserve"> 金融服务与住宿</t>
   </si>
   <si>
-    <t xml:space="preserve">Selfridges' </t>
-  </si>
-  <si>
     <t xml:space="preserve">LBG' </t>
   </si>
   <si>
-    <t xml:space="preserve">Pets at Home' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZON' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pets Corner' </t>
-  </si>
-  <si>
     <t xml:space="preserve">Halifax' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jollyes' </t>
   </si>
   <si>
     <t xml:space="preserve">CPA' </t>
@@ -370,14 +370,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,148 +828,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1306,7 +1299,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
@@ -1314,7 +1307,8 @@
     <col min="1" max="1" width="25.0088495575221" customWidth="1"/>
     <col min="2" max="2" width="21.070796460177" customWidth="1"/>
     <col min="6" max="6" width="16.4955752212389" customWidth="1"/>
-    <col min="7" max="8" width="27.8407079646018" customWidth="1"/>
+    <col min="7" max="7" width="35.7079646017699" customWidth="1"/>
+    <col min="8" max="8" width="27.8407079646018" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2098,73 +2092,73 @@
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
         <v>94</v>
-      </c>
-      <c r="B71" t="s">
-        <v>88</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -2175,7 +2169,7 @@
         <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -2186,7 +2180,7 @@
         <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -2197,73 +2191,73 @@
         <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
         <v>104</v>
-      </c>
-      <c r="B80" t="s">
-        <v>98</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -2274,7 +2268,7 @@
         <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -2285,7 +2279,7 @@
         <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C82">
         <v>8</v>
@@ -2296,7 +2290,7 @@
         <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C83">
         <v>8</v>
@@ -2307,7 +2301,7 @@
         <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C84">
         <v>8</v>
